--- a/NVIDIA Models.xlsx
+++ b/NVIDIA Models.xlsx
@@ -3,19 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DA881C-7BA0-45CD-9E8E-629136B46563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139D0D09-D395-4B2D-B4A3-07AC9F39F1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{0111CD58-68C9-4733-B360-8163D57FA073}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{0111CD58-68C9-4733-B360-8163D57FA073}"/>
   </bookViews>
   <sheets>
     <sheet name="__FDSCACHE__" sheetId="8" state="veryHidden" r:id="rId1"/>
-    <sheet name="Agenda" sheetId="1" r:id="rId2"/>
-    <sheet name="DCF" sheetId="4" r:id="rId3"/>
-    <sheet name="WACC" sheetId="10" r:id="rId4"/>
-    <sheet name="Taxes" sheetId="7" r:id="rId5"/>
-    <sheet name="Historicals" sheetId="6" r:id="rId6"/>
-    <sheet name="Estimates" sheetId="9" r:id="rId7"/>
-    <sheet name="CFS" sheetId="3" r:id="rId8"/>
+    <sheet name="DCF" sheetId="4" r:id="rId2"/>
+    <sheet name="WACC" sheetId="10" r:id="rId3"/>
+    <sheet name="Taxes" sheetId="7" r:id="rId4"/>
+    <sheet name="Historicals" sheetId="6" r:id="rId5"/>
+    <sheet name="Estimates" sheetId="9" r:id="rId6"/>
+    <sheet name="CFS" sheetId="3" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="IQ_CH">110000</definedName>
@@ -119,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="274">
   <si>
     <t>All figures in millions of U.S. Dollar except per share items.</t>
   </si>
@@ -496,58 +495,7 @@
     <t>x</t>
   </si>
   <si>
-    <t>Agenda</t>
-  </si>
-  <si>
-    <t>2. Wall Street Prep</t>
-  </si>
-  <si>
-    <t>3. DCF</t>
-  </si>
-  <si>
-    <t>4. WACC, Mid-Year Convention</t>
-  </si>
-  <si>
-    <t>5. Price discussion</t>
-  </si>
-  <si>
-    <t>The Bull Case</t>
-  </si>
-  <si>
-    <t>The Bear Case</t>
-  </si>
-  <si>
-    <t>This is a HIGH-LEVEL, street-based DCF and NOT financial advice</t>
-  </si>
-  <si>
-    <t>Sign up for my upcoming investment banking course in description below</t>
-  </si>
-  <si>
-    <t>Financial statement, excel shortcut, DCF tutorials in description below</t>
-  </si>
-  <si>
     <t>NVIDIA DCF</t>
-  </si>
-  <si>
-    <t>1. NVIDIA Situation Overview</t>
-  </si>
-  <si>
-    <t>AI</t>
-  </si>
-  <si>
-    <t>Clear leader in the semiconductor space</t>
-  </si>
-  <si>
-    <t>Overvalued?</t>
-  </si>
-  <si>
-    <t>Other tech companies are building chips in-house (Google, Amazon)</t>
-  </si>
-  <si>
-    <t>This model will be available FOR FREE to download after this steam ends (see description)</t>
-  </si>
-  <si>
-    <t>Notes and Reminders</t>
   </si>
   <si>
     <t>Assumptions</t>
@@ -1347,7 +1295,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -1570,7 +1518,6 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" customBuiltin="1"/>
@@ -1896,7 +1843,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -1907,153 +1854,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9135F86D-9B3F-4ED7-AD18-A6B50384E5CD}">
-  <dimension ref="A2:B23"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:2" s="47" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="48" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
-        <v>124</v>
-      </c>
-      <c r="B4" s="50" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="102" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
-      <c r="B7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
-      <c r="B8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
-      <c r="B9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="49" t="s">
-        <v>124</v>
-      </c>
-      <c r="B11" s="50" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
-      <c r="B12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
-      <c r="B13" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="49" t="s">
-        <v>124</v>
-      </c>
-      <c r="B15" s="50" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
-      <c r="B16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
-      <c r="B17" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="49" t="s">
-        <v>124</v>
-      </c>
-      <c r="B19" s="50" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
-      <c r="B20" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
-      <c r="B21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
-      <c r="B22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>133</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{F4D00243-0CEE-4AEF-A03E-69FC8A037EB7}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D081CA1-168C-4AC5-BEAC-377B59850DCF}">
   <dimension ref="A1:X77"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2069,25 +1873,25 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="47" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="56"/>
       <c r="B2" s="48" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C2" s="48"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="F4" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="I4" s="99">
         <f ca="1">S77</f>
@@ -2096,13 +1900,13 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="D5" s="90">
         <v>45190</v>
       </c>
       <c r="F5" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="I5" s="99">
         <v>410.17</v>
@@ -2110,13 +1914,13 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="D6" s="90">
         <v>45291</v>
       </c>
       <c r="F6" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="I6" s="100">
         <f ca="1">I4/I5-1</f>
@@ -2128,7 +1932,7 @@
         <v>124</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C8" s="51"/>
       <c r="D8" s="51"/>
@@ -2155,17 +1959,17 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B9" s="50" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="C9" s="50"/>
       <c r="G9" s="50" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="K9" s="50" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="O9" s="50" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -2176,13 +1980,13 @@
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="I10" s="53">
         <v>0.8</v>
       </c>
       <c r="O10" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="Q10" s="53">
         <v>1.2</v>
@@ -2190,25 +1994,25 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="E11" s="52">
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="I11" s="53">
         <v>0.02</v>
       </c>
       <c r="K11" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="M11" s="53">
         <v>0.05</v>
       </c>
       <c r="O11" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="Q11" s="53">
         <v>0.08</v>
@@ -2216,19 +2020,19 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="E12" s="52">
         <v>3</v>
       </c>
       <c r="G12" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="I12" s="53">
         <v>0.9</v>
       </c>
       <c r="O12" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="Q12" s="53">
         <v>1.05</v>
@@ -2236,7 +2040,7 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="E13" s="52">
         <v>2</v>
@@ -2244,7 +2048,7 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="K14" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="M14" s="53">
         <v>0.1</v>
@@ -2252,28 +2056,28 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="E15" s="54">
         <f>CHOOSE($E$12,I15,M15,Q15)</f>
         <v>0.09</v>
       </c>
       <c r="G15" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="I15" s="53">
         <f>M15+0.5%</f>
         <v>0.12165840821502701</v>
       </c>
       <c r="K15" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="M15" s="53">
         <f>WACC!F22</f>
         <v>0.116658408215027</v>
       </c>
       <c r="O15" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="Q15" s="53">
         <v>0.09</v>
@@ -2281,26 +2085,26 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="E16" s="54">
         <f>CHOOSE($E$13,I16,M16,Q16)</f>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="G16" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="I16" s="53">
         <v>0.02</v>
       </c>
       <c r="K16" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="M16" s="53">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="O16" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="Q16" s="55">
         <v>0.03</v>
@@ -2311,7 +2115,7 @@
         <v>124</v>
       </c>
       <c r="B18" s="51" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="C18" s="51"/>
       <c r="D18" s="51"/>
@@ -2442,12 +2246,12 @@
     </row>
     <row r="20" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B20" s="64" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="C20" s="64"/>
       <c r="D20" s="64"/>
       <c r="E20" s="65" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="F20" s="66">
         <f>F19/E19-1</f>
@@ -2509,7 +2313,7 @@
     <row r="21" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="E22" s="69">
         <f>Historicals!C12</f>
@@ -2574,7 +2378,7 @@
     </row>
     <row r="23" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B23" s="64" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="C23" s="64"/>
       <c r="D23" s="64"/>
@@ -2645,7 +2449,7 @@
         <v>124</v>
       </c>
       <c r="B25" s="51" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="C25" s="51"/>
       <c r="D25" s="51"/>
@@ -2713,7 +2517,7 @@
     <row r="26" spans="1:19" s="62" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="60"/>
       <c r="B26" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="C26"/>
       <c r="D26" s="61"/>
@@ -2754,7 +2558,7 @@
     <row r="27" spans="1:19" s="62" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="60"/>
       <c r="B27" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="C27"/>
       <c r="D27" s="61"/>
@@ -2825,7 +2629,7 @@
     <row r="29" spans="1:19" s="62" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="60"/>
       <c r="B29" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="C29"/>
       <c r="D29" s="61"/>
@@ -2875,7 +2679,7 @@
     <row r="30" spans="1:19" s="62" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="60"/>
       <c r="B30" s="64" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="C30" s="64"/>
       <c r="D30" s="61"/>
@@ -2946,7 +2750,7 @@
     <row r="32" spans="1:19" s="62" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="60"/>
       <c r="B32" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="C32"/>
       <c r="D32" s="61"/>
@@ -2993,7 +2797,7 @@
     <row r="33" spans="1:19" s="62" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="60"/>
       <c r="B33" s="64" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="C33" s="64"/>
       <c r="D33" s="61"/>
@@ -3039,7 +2843,7 @@
     </row>
     <row r="34" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B34" s="64" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="C34" s="64"/>
       <c r="F34" s="66">
@@ -3101,7 +2905,7 @@
         <v>124</v>
       </c>
       <c r="B36" s="51" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="C36" s="51"/>
       <c r="D36" s="51"/>
@@ -3233,11 +3037,11 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B38" s="64" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="C38" s="64"/>
       <c r="E38" s="63" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="F38" s="66">
         <f>F37/E37-1</f>
@@ -3298,7 +3102,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="N39" s="74">
         <f>N40</f>
@@ -3327,7 +3131,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="N40" s="74">
         <f>N20</f>
@@ -3356,7 +3160,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="N41" s="74">
         <f>N40</f>
@@ -3385,7 +3189,7 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="E43" s="73">
         <f>E22</f>
@@ -3450,7 +3254,7 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B44" s="64" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="C44" s="64"/>
       <c r="E44" s="66">
@@ -3516,7 +3320,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="C45" s="64"/>
       <c r="N45" s="74">
@@ -3546,7 +3350,7 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="C46" s="64"/>
       <c r="N46" s="74">
@@ -3576,7 +3380,7 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="C47" s="64"/>
       <c r="N47" s="74">
@@ -3606,7 +3410,7 @@
     </row>
     <row r="49" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="N49" s="75">
         <f ca="1">N50*N43</f>
@@ -3635,7 +3439,7 @@
     </row>
     <row r="50" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B50" s="64" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="C50" s="64"/>
       <c r="N50" s="74">
@@ -3665,7 +3469,7 @@
     </row>
     <row r="52" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B52" s="77" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="C52" s="78"/>
       <c r="D52" s="78"/>
@@ -3705,7 +3509,7 @@
     </row>
     <row r="54" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="E54" s="73">
         <f>E26</f>
@@ -3770,7 +3574,7 @@
     </row>
     <row r="55" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E55" s="66">
         <f>E54/E37</f>
@@ -3835,7 +3639,7 @@
     </row>
     <row r="57" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="E57" s="73">
         <f>E29</f>
@@ -3900,7 +3704,7 @@
     </row>
     <row r="58" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B58" s="64" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="C58" s="64"/>
       <c r="E58" s="66">
@@ -3966,7 +3770,7 @@
     </row>
     <row r="60" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="E60" s="72">
         <f>E32</f>
@@ -4001,7 +3805,7 @@
         <v>2898.8333333333335</v>
       </c>
       <c r="M60" s="81" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="N60" s="75">
         <f ca="1">N61*N$37</f>
@@ -4030,7 +3834,7 @@
     </row>
     <row r="61" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B61" s="64" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="C61" s="64"/>
       <c r="E61" s="66">
@@ -4066,7 +3870,7 @@
         <v>0.11134798084556094</v>
       </c>
       <c r="M61" s="81" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="N61" s="74">
         <f>AVERAGE(J61:L61)</f>
@@ -4095,7 +3899,7 @@
     </row>
     <row r="63" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B63" s="92" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="C63" s="93"/>
       <c r="D63" s="93"/>
@@ -4135,7 +3939,7 @@
     </row>
     <row r="64" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B64" s="96" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="C64" s="47"/>
       <c r="D64" s="47"/>
@@ -4175,7 +3979,7 @@
     </row>
     <row r="66" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="N66" s="91">
         <f>YEARFRAC(D5,D6)</f>
@@ -4204,7 +4008,7 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="N67" s="91">
         <f>N66/2</f>
@@ -4233,7 +4037,7 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="S69" s="75">
         <f ca="1">(S63*(1+tgr))/(wacc-tgr)</f>
@@ -4242,7 +4046,7 @@
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="S70" s="75">
         <f ca="1">S69/(1+wacc)^S67</f>
@@ -4251,7 +4055,7 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="S71" s="72">
         <f ca="1">SUM(N64:S64,S70)</f>
@@ -4260,7 +4064,7 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="S72" s="75">
         <f>5783+10240</f>
@@ -4269,7 +4073,7 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="S73" s="75">
         <f>WACC!F15</f>
@@ -4278,7 +4082,7 @@
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="S74" s="72">
         <f ca="1">S71+S72-S73</f>
@@ -4287,7 +4091,7 @@
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="S76" s="72">
         <v>2516</v>
@@ -4298,7 +4102,7 @@
         <v>124</v>
       </c>
       <c r="B77" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="S77" s="99">
         <f ca="1">S74/S76</f>
@@ -4312,7 +4116,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC47E379-D7D4-40B8-B75E-A50DB1527677}">
   <dimension ref="A2:H22"/>
   <sheetViews>
@@ -4326,17 +4130,17 @@
   <sheetData>
     <row r="2" spans="1:8" s="47" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="48" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -4344,7 +4148,7 @@
         <v>124</v>
       </c>
       <c r="B7" s="82" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="C7" s="83"/>
       <c r="D7" s="83"/>
@@ -4353,7 +4157,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="F8" s="84">
         <v>1043000</v>
@@ -4361,7 +4165,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="F9" s="89">
         <f>F8/(F8+F15)</f>
@@ -4370,7 +4174,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="F10" s="85">
         <f>F11+F12*F13</f>
@@ -4379,7 +4183,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="F11" s="86">
         <v>4.496E-2</v>
@@ -4387,7 +4191,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="F12" s="87">
         <v>1.65</v>
@@ -4395,7 +4199,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="F13" s="86">
         <v>4.3999999999999997E-2</v>
@@ -4404,7 +4208,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="F15" s="88">
         <f>1249+8456</f>
@@ -4413,7 +4217,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="F16" s="85">
         <f>F15/(F8+F15)</f>
@@ -4422,7 +4226,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="F17" s="86">
         <v>2.196E-2</v>
@@ -4430,7 +4234,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="F18" s="86">
         <f>DCF!M14</f>
@@ -4439,7 +4243,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="F20" s="84">
         <f>F8+F15</f>
@@ -4451,7 +4255,7 @@
         <v>124</v>
       </c>
       <c r="B22" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="F22" s="85">
         <f>F9*F10+(F16*F17*(1-F18))</f>
@@ -4464,7 +4268,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5178AAD4-AA55-4907-A6C4-DB1CE8C51993}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4505,7 +4309,7 @@
     </row>
     <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4609,64 +4413,64 @@
     <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="30"/>
       <c r="B8" s="30" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="C8" s="30" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="G8" s="30" t="s">
         <v>34</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="J8" s="30" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="K8" s="30" t="s">
         <v>33</v>
       </c>
       <c r="L8" s="30" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="M8" s="30" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="N8" s="30" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="O8" s="30" t="s">
         <v>32</v>
       </c>
       <c r="P8" s="30" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="Q8" s="30" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="R8" s="30" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="S8" s="30" t="s">
         <v>31</v>
       </c>
       <c r="T8" s="30" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="U8" s="30" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6806,7 +6610,7 @@
     </row>
     <row r="45" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="B45" s="67">
         <f>-B29/B22</f>
@@ -7269,14 +7073,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C9DCC2-A301-4225-B5E9-964E024D5907}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -7294,7 +7098,7 @@
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7342,7 +7146,7 @@
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="30" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
@@ -7358,39 +7162,39 @@
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="30"/>
       <c r="B8" s="30" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="J8" s="30" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="K8" s="30" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -7405,7 +7209,7 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="B10" s="20">
         <v>4117.7233329999999</v>
@@ -7440,7 +7244,7 @@
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="B11" s="24">
         <v>2256.5496659999999</v>
@@ -7475,7 +7279,7 @@
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B12" s="20">
         <v>501.77667000000002</v>
@@ -7510,7 +7314,7 @@
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="B13" s="24">
         <v>742.11234000000002</v>
@@ -7545,7 +7349,7 @@
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="B14" s="20">
         <v>449.008667</v>
@@ -7580,7 +7384,7 @@
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
@@ -7595,7 +7399,7 @@
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="B16" s="20">
         <v>4125.5246669999997</v>
@@ -7630,7 +7434,7 @@
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="B17" s="24">
         <v>6737.7203330000002</v>
@@ -7665,7 +7469,7 @@
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="B18" s="20">
         <v>921.58833400000003</v>
@@ -7700,7 +7504,7 @@
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="B19" s="23">
         <v>-3203.9363330000001</v>
@@ -7735,7 +7539,7 @@
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="B20" s="20">
         <v>2326.572666</v>
@@ -7770,7 +7574,7 @@
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="B21" s="24">
         <v>4411.1476670000002</v>
@@ -7805,7 +7609,7 @@
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -7820,7 +7624,7 @@
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="B23" s="24">
         <v>851.91166699999997</v>
@@ -7855,7 +7659,7 @@
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="B24" s="59">
         <v>-248.98066600000001</v>
@@ -7890,7 +7694,7 @@
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B25" s="23">
         <v>-486.55033300000002</v>
@@ -7925,7 +7729,7 @@
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="B26" s="59">
         <v>-73.928666000000007</v>
@@ -7960,7 +7764,7 @@
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="B27" s="24">
         <v>602.93100000000004</v>
@@ -7995,7 +7799,7 @@
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -8010,7 +7814,7 @@
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="B29" s="7">
         <v>81.69</v>
@@ -8045,7 +7849,7 @@
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="B30" s="4">
         <v>282.59591699999999</v>
@@ -8080,7 +7884,7 @@
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B31" s="7">
         <v>1.9446669999999999</v>
@@ -8124,7 +7928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8537A5A9-29E7-4E33-84D0-DD67A5DE0D8B}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -8143,113 +7947,113 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="30"/>
       <c r="B3" s="30" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="I3" s="30" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="J3" s="30" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="K3" s="30" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="L3" s="30" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="M3" s="30" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="N3" s="30" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="O3" s="30" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="P3" s="30" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="30"/>
       <c r="B4" s="30" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="J4" s="30" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="K4" s="30" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="L4" s="30" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="M4" s="30" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="N4" s="30" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="O4" s="30" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="P4" s="30" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="B5" s="24">
         <v>4634.67</v>
@@ -8299,7 +8103,7 @@
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>4</v>
@@ -8349,7 +8153,7 @@
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="B7" s="24">
         <v>2571.3000000000002</v>
@@ -8399,7 +8203,7 @@
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="B8" s="20">
         <v>964.26099999999997</v>
@@ -8449,7 +8253,7 @@
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="B9" s="24">
         <v>736.68</v>
@@ -8499,7 +8303,7 @@
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="B10" s="20">
         <v>925.00900000000001</v>
@@ -8549,7 +8353,7 @@
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="B11" s="24">
         <v>119.622</v>
@@ -8599,7 +8403,7 @@
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="B12" s="20">
         <v>614.399</v>
@@ -8653,7 +8457,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35491F62-939E-41F5-A97E-C662E8770FD0}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>

--- a/NVIDIA Models.xlsx
+++ b/NVIDIA Models.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139D0D09-D395-4B2D-B4A3-07AC9F39F1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C159B80-3031-415E-A1A7-EE6655E9B1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{0111CD58-68C9-4733-B360-8163D57FA073}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{0111CD58-68C9-4733-B360-8163D57FA073}"/>
   </bookViews>
   <sheets>
     <sheet name="__FDSCACHE__" sheetId="8" state="veryHidden" r:id="rId1"/>
@@ -50,7 +50,7 @@
     <definedName name="tgr">DCF!$E$16</definedName>
     <definedName name="wacc">DCF!$E$15</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1857,7 +1857,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D081CA1-168C-4AC5-BEAC-377B59850DCF}">
   <dimension ref="A1:X77"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S69" sqref="S69"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7080,7 +7082,7 @@
   </sheetPr>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
